--- a/biology/Médecine/1660_en_santé_et_médecine/1660_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1660_en_santé_et_médecine/1660_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1660_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1660_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1660 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1660_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1660_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>28 novembre : fondation de la Royal Society[1].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>28 novembre : fondation de la Royal Society.</t>
         </is>
       </c>
     </row>
@@ -523,7 +537,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1660_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1660_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -541,10 +555,12 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Guy de La Brosse (c.1586-1641) publie De la nature, vertu, et utilité des plantes[2].
-Nicaise Le Febvre (c.1610-1669) publie son Traicté de la chymie[3].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Guy de La Brosse (c.1586-1641) publie De la nature, vertu, et utilité des plantes.
+Nicaise Le Febvre (c.1610-1669) publie son Traicté de la chymie.</t>
         </is>
       </c>
     </row>
@@ -554,7 +570,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1660_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1660_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -572,11 +588,13 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>19 février : Friedrich Hoffmann (mort en 1742), médecin et chimiste allemand[4].
-15 mars : Olof Rudbeck le Jeune (mort en 1740), explorateur, naturaliste et médecin suédois, professeur à l'Université d'Uppsala en 1692[5],[6].
-16 avril : Hans Sloane (mort en 1753), médecin, naturaliste et collectionneur irlandais[7].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>19 février : Friedrich Hoffmann (mort en 1742), médecin et chimiste allemand.
+15 mars : Olof Rudbeck le Jeune (mort en 1740), explorateur, naturaliste et médecin suédois, professeur à l'Université d'Uppsala en 1692,.
+16 avril : Hans Sloane (mort en 1753), médecin, naturaliste et collectionneur irlandais.</t>
         </is>
       </c>
     </row>
@@ -586,7 +604,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1660_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1660_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -604,9 +622,11 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>15 mars : Louise de Marillac (née en 1591) aristocrate française, fondatrice avec  saint Vincent de Paul des Filles de la Charité[8].</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>15 mars : Louise de Marillac (née en 1591) aristocrate française, fondatrice avec  saint Vincent de Paul des Filles de la Charité.</t>
         </is>
       </c>
     </row>
